--- a/data/Subset1_WithDialogActs/Number Lines 1_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Number Lines 1_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -677,12 +677,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1171,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1361,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1475,12 +1475,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1909,12 +1909,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1947,12 +1947,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2213,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2289,12 +2289,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2799,12 +2799,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2837,12 +2837,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3103,12 +3103,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3377,12 +3377,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3503,12 +3503,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3769,12 +3769,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3807,12 +3807,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4039,12 +4039,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4077,12 +4077,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4115,12 +4115,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4191,12 +4191,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4229,12 +4229,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4267,12 +4267,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4811,12 +4811,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
